--- a/scripts/script_data/complete_MANUAL_LOOKUP_matches_single_bibkey_with_many_ss_ids_KM.xlsx
+++ b/scripts/script_data/complete_MANUAL_LOOKUP_matches_single_bibkey_with_many_ss_ids_KM.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBDD915-30AC-495E-951B-35BAF393FF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="233">
   <si>
     <t>bibkey</t>
   </si>
@@ -58,12 +52,387 @@
     <t>COMMENT</t>
   </si>
   <si>
+    <t>Kooi17d</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>Classifying Symmetrical Differences and Temporal Change in Mammography Using Deep Neural Networks</t>
+  </si>
+  <si>
+    <t>Thijs Kooi and Nico Karssemeijer</t>
+  </si>
+  <si>
+    <t>a908e3775fd064b0d249728a7261cfb1efa13b87</t>
+  </si>
+  <si>
+    <t>['a908e3775fd064b0d249728a7261cfb1efa13b87', 'b8c484519a8970bf4cb07c3c609c41a05365f258']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['a908e3775fd064b0d249728a7261cfb1efa13b87', 'b8c484519a8970bf4cb07c3c609c41a05365f258']), took the first one with most citations</t>
+  </si>
+  <si>
+    <t>[ss_ids: 1 no DOI, 1 have same DOI]</t>
+  </si>
+  <si>
+    <t>['True', 'False']</t>
+  </si>
+  <si>
+    <t>['False', 'False']</t>
+  </si>
+  <si>
+    <t>The first one is SPIE, the second one is arxiv (but with no doi).  They are not actually the same, but without a doi I am not sure how the arxiv one can ever be added via our system.  Maybe we have to add the arxiv one manually to the bib file?</t>
+  </si>
+  <si>
+    <t>Band23</t>
+  </si>
+  <si>
+    <t>Continual learning strategies for cancer-independent detection of lymph node metastases</t>
+  </si>
+  <si>
+    <t>B\'{a}ndi, P. and Balkenhol, Maschenka and van Dijk, Marcory and Kok, Michel and van Ginneken, Bram and van der Laak, Jeroen and Litjens, Geert</t>
+  </si>
+  <si>
+    <t>4bcd672218ecec70473c84f6f1cc52c64031f3e5</t>
+  </si>
+  <si>
+    <t>['4bcd672218ecec70473c84f6f1cc52c64031f3e5', 'bc6b483f9b1fa630fa4b43158b13716f1ca7497b']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['4bcd672218ecec70473c84f6f1cc52c64031f3e5', 'bc6b483f9b1fa630fa4b43158b13716f1ca7497b']), took the first one with most citations</t>
+  </si>
+  <si>
+    <t>[ss_ids: contain multiple DOIs!]</t>
+  </si>
+  <si>
+    <t>The second one is a different publication (arxiv, has its own arxiv based doi), I don't add it to this bibkey or to the blacklist so it should end up in our "new publications to be added" list in the end</t>
+  </si>
+  <si>
+    <t>Vent21</t>
+  </si>
+  <si>
+    <t>Automated COVID-19 Grading with Convolutional Neural Networks in Computed Tomography Scans: A Systematic Comparison</t>
+  </si>
+  <si>
+    <t>Coen de Vente and Luuk H. Boulogne and Kiran Vaidhya Venkadesh and Cheryl Sital and Nikolas Lessmann and Colin Jacobs and Clara I. S\'{a}nchez and Bram van Ginneken</t>
+  </si>
+  <si>
+    <t>441d6e8ba2cc2314d7d44425a158c25e27f9cb96</t>
+  </si>
+  <si>
+    <t>['41f386d38567e38132525cad9bdc7da1ad6e8f1c', '441d6e8ba2cc2314d7d44425a158c25e27f9cb96']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['41f386d38567e38132525cad9bdc7da1ad6e8f1c', '441d6e8ba2cc2314d7d44425a158c25e27f9cb96']), took the first one with most citations</t>
+  </si>
+  <si>
+    <t>['True', 'True']</t>
+  </si>
+  <si>
+    <t>The titles are a bit different, but same author list and same topic, one on arxiv, one published.  I believe they are essentially the same and I do not see how we can (easily) add the arxiv one as a separate paper so I propose that we merge them as a single item.</t>
+  </si>
+  <si>
+    <t>Mann17</t>
+  </si>
+  <si>
+    <t>White Matter and Gray Matter Segmentation in {4D} Computed Tomography</t>
+  </si>
+  <si>
+    <t>Rashindra Manniesing and Marcel T.H. Oei and Luuk J Oostveen and Jaime Melendez and Ewoud J. Smit and Bram Platel and Clara I S\'{a}nchez and Frederick J.A. Meijer and Mathias Prokop and Bram van Ginneken</t>
+  </si>
+  <si>
+    <t>86bab119f07a492350c6cc7bd06ed91c73ee807a</t>
+  </si>
+  <si>
+    <t>['682e8febc5d053766fefe1ee2de5ca2ff39762f2', '7f1eabb6591699816ccd89e7765a66dc54a7175c', '86bab119f07a492350c6cc7bd06ed91c73ee807a', 'e7f15929ff71a5a33af66ece92d707a7be7aebc8']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['682e8febc5d053766fefe1ee2de5ca2ff39762f2', '7f1eabb6591699816ccd89e7765a66dc54a7175c', '86bab119f07a492350c6cc7bd06ed91c73ee807a', 'e7f15929ff71a5a33af66ece92d707a7be7aebc8']), took the first one with most citations</t>
+  </si>
+  <si>
+    <t>['True', 'True', 'True', 'True']</t>
+  </si>
+  <si>
+    <t>['False', 'False', 'False', 'False']</t>
+  </si>
+  <si>
+    <t>Ridg15</t>
+  </si>
+  <si>
+    <t>Differentiating between Subsolid and Solid Pulmonary Nodules at {CT}: Inter- and Intraobserver Agreement between Experienced Thoracic Radiologists</t>
+  </si>
+  <si>
+    <t>Ridge, Carole A. and Yildirim, Afra and Boiselle, Phillip M. and Franquet, Tomas and Schaefer-Prokop, Cornelia M. and Tack, Denis and Gevenois, Pierre Alain and Bankier, Alexander A.</t>
+  </si>
+  <si>
+    <t>fdf663cc9dda29d55f2e2f44f9876f3b08f854f8</t>
+  </si>
+  <si>
+    <t>['75bc9847c96d8f319f82d1b9ba01b5a396247152', 'a6a2fed1ee525c0d2a35ae6454660eca53ce03fc', 'fdf663cc9dda29d55f2e2f44f9876f3b08f854f8']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['75bc9847c96d8f319f82d1b9ba01b5a396247152', 'a6a2fed1ee525c0d2a35ae6454660eca53ce03fc', 'fdf663cc9dda29d55f2e2f44f9876f3b08f854f8']), took the first one with most citations</t>
+  </si>
+  <si>
+    <t>[ss_ids: 2 no DOI, 1 have same DOI]</t>
+  </si>
+  <si>
+    <t>['True', 'True', 'True']</t>
+  </si>
+  <si>
+    <t>['False', 'False', 'False']</t>
+  </si>
+  <si>
+    <t>Argu19</t>
+  </si>
+  <si>
+    <t>Function Follows Form: Regression from Complete Thoracic Computed Tomography Scans</t>
+  </si>
+  <si>
+    <t>Argus, Max and Schaefer-Prokop, Cornelia and Lynch, David A. and van Ginneken, Bram</t>
+  </si>
+  <si>
+    <t>6425e3f4c37f8deb9e8dc933e34d49aa843635b9</t>
+  </si>
+  <si>
+    <t>['6425e3f4c37f8deb9e8dc933e34d49aa843635b9', 'a9a9dfdccb4e656e7ff2b88fc88666415ab7e189']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['6425e3f4c37f8deb9e8dc933e34d49aa843635b9', 'a9a9dfdccb4e656e7ff2b88fc88666415ab7e189']), took the first one with most citations</t>
+  </si>
+  <si>
+    <t>[ss_ids: no DOIs at all!]</t>
+  </si>
+  <si>
+    <t>Bokh19b</t>
+  </si>
+  <si>
+    <t>Assessment of individual tumor buds using keratin immunohistochemistry: moderate interobserver agreement suggests a role for machine learning</t>
+  </si>
+  <si>
+    <t>Bokhorst, John-Melle and Blank, A. and Lugli, A. and Zlobec, I. and Dawson, H. and Vieth, M. and Rijstenberg, L. L. and Brockmoeller, S. and Urbanowicz, M. and Flejou, J. F. and Kirsch, R. and Ciompi, F. and van der Laak, J. A. W. M. and Nagtegaal, I. D.</t>
+  </si>
+  <si>
+    <t>c3e98e4b01c27affe1b6c161172c5e27e8141618</t>
+  </si>
+  <si>
+    <t>['aff9f3cd8024fb64c7ea36d396a36ebf33d01f5b', 'c3e98e4b01c27affe1b6c161172c5e27e8141618']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['aff9f3cd8024fb64c7ea36d396a36ebf33d01f5b', 'c3e98e4b01c27affe1b6c161172c5e27e8141618']), took the first one with most citations</t>
+  </si>
+  <si>
+    <t>Ciom17a</t>
+  </si>
+  <si>
+    <t>Towards automatic pulmonary nodule management in lung cancer screening with deep learning</t>
+  </si>
+  <si>
+    <t>F. Ciompi and K. Chung and S. J. van Riel and A. A. A. Setio and P. K. Gerke and C. Jacobs and E. Th. Scholten and C. M. Schaefer-Prokop and M. M. W. Wille and A. Marchiano and U. Pastorino and M. Prokop and B. van Ginneken</t>
+  </si>
+  <si>
+    <t>fd0901b1f2121506391a7859de8fb695d159a393</t>
+  </si>
+  <si>
+    <t>['86b9d39fb026746752f95f87f87fd26b8512c913', 'fd0901b1f2121506391a7859de8fb695d159a393']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['86b9d39fb026746752f95f87f87fd26b8512c913', 'fd0901b1f2121506391a7859de8fb695d159a393']), took the first one with most citations</t>
+  </si>
+  <si>
+    <t>Gall17</t>
+  </si>
+  <si>
+    <t>Computed tomography quantification of tracheal abnormalities in {COPD} and their influence on airflow limitation</t>
+  </si>
+  <si>
+    <t>Gallardo Estrella, Leticia and Pompe, Esther and Kuhnigk, Jan-Martin and Lynch, David A and Bhatt, Surya P and van Ginneken, Bram and van Rikxoort, Eva Marjolein</t>
+  </si>
+  <si>
+    <t>e15e0cd21632aa9d6643b314a4d1d1a6580f2b39</t>
+  </si>
+  <si>
+    <t>['d1e0a041fc417d82c584191ecf5b3b536127d9e0', 'e15e0cd21632aa9d6643b314a4d1d1a6580f2b39']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['d1e0a041fc417d82c584191ecf5b3b536127d9e0', 'e15e0cd21632aa9d6643b314a4d1d1a6580f2b39']), took the first one with most citations</t>
+  </si>
+  <si>
+    <t>Kort15</t>
+  </si>
+  <si>
+    <t>4D}-{CTA} in Neurovascular Disease: A Review</t>
+  </si>
+  <si>
+    <t>Hans G. J. Kortman and Ewoud J. Smit and Marcel T. H. Oei and Rashindra Manniesing and Mathias Prokop and Frederick J. A. Meijer</t>
+  </si>
+  <si>
+    <t>88b86ad75e10c7dac7b70edbd05ed494d699ffb0</t>
+  </si>
+  <si>
+    <t>['7c83ece3400fa10da80bd363c15dd96eded51c9f', '88b86ad75e10c7dac7b70edbd05ed494d699ffb0']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['7c83ece3400fa10da80bd363c15dd96eded51c9f', '88b86ad75e10c7dac7b70edbd05ed494d699ffb0']), took the first one with most citations</t>
+  </si>
+  <si>
+    <t>Maie18a</t>
+  </si>
+  <si>
+    <t>Why rankings of biomedical image analysis competitions should be interpreted with care</t>
+  </si>
+  <si>
+    <t>Maier-Hein, Lena and Eisenmann, Matthias and Reinke, Annika and Onogur, Sinan and Stankovic, Marko and Scholz, Patrick and Arbel, Tal and Bogunovic, Hrvoje and Bradley, Andrew P and Carass, Aaron and Feldmann, Carolin and Frangi, Alejandro F and Full, Peter M and van Ginneken, Bram and Hanbury, Allan and Honauer, Katrin and Kozubek, Michal and Landman, Bennett A and Marz, Keno and Maier, Oskar and Maier-Hein, Klaus and Menze, Bjoern H and Muller, Henning and Neher, Peter F and Niessen, Wiro and Rajpoot, Nasir and Sharp, Gregory C and Sirinukunwattana, Korsuk and Speidel, Stefanie and Stock, Christian and Stoyanov, Danail and Taha, Abdel Aziz and van der Sommen, Fons and Wang, Ching-Wei and Weber, Marc-Andre and Zheng, Guoyan and Jannin, Pierre and Kopp-Schneider, Annette</t>
+  </si>
+  <si>
+    <t>91d23b702b9a59bf75c5162c3250017b526c0e69</t>
+  </si>
+  <si>
+    <t>['91d23b702b9a59bf75c5162c3250017b526c0e69', 'bed661aebb0ede3c407e044637ce60a6d7ccfe5f']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['91d23b702b9a59bf75c5162c3250017b526c0e69', 'bed661aebb0ede3c407e044637ce60a6d7ccfe5f']), took the first one with most citations</t>
+  </si>
+  <si>
+    <t>Mori20</t>
+  </si>
+  <si>
+    <t>inproceedings</t>
+  </si>
+  <si>
+    <t>Kernel of CycleGAN as a principal homogeneous space</t>
+  </si>
+  <si>
+    <t>Moriakov, N. and Adler, J. and Teuwen, J.</t>
+  </si>
+  <si>
+    <t>6d37b7ceb99c6cc36be602ae9ab2a26232d11bb5</t>
+  </si>
+  <si>
+    <t>['6d37b7ceb99c6cc36be602ae9ab2a26232d11bb5', '8f938d6b54c38e469997969380383de635e654aa']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['6d37b7ceb99c6cc36be602ae9ab2a26232d11bb5', '8f938d6b54c38e469997969380383de635e654aa']), took the first one with most citations</t>
+  </si>
+  <si>
+    <t>Scho14c</t>
+  </si>
+  <si>
+    <t>Towards a close computed tomography monitoring approach for screen detected subsolid pulmonary nodules?</t>
+  </si>
+  <si>
+    <t>Scholten, Ernst T. and de Jong, Pim A. and de Hoop, Bartjan and van Klaveren, Rob and van Amelsvoort-van de Vorst, Saskia and Oudkerk, Matthijs and Vliegenthart, Rozemarijn and de Koning, Harry J. and van der Aalst, Carlijn M. and Vernhout, Ren\'{e} M. and Groen, Harry J M. and Lammers, Jan-Willem J. and van Ginneken, Bram and Jacobs, Colin and Mali, Willem P T M. and Horeweg, Nanda and Weenink, Carla and Thunnissen, Erik and Prokop, Mathias and Gietema, Hester A.</t>
+  </si>
+  <si>
+    <t>6ca452a24dbe147205850148d98163481aa22dc6</t>
+  </si>
+  <si>
+    <t>['2fa5f435f41242e8ef053e94ae7af400014ca7d3', '6ca452a24dbe147205850148d98163481aa22dc6']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['2fa5f435f41242e8ef053e94ae7af400014ca7d3', '6ca452a24dbe147205850148d98163481aa22dc6']), took the first one with most citations</t>
+  </si>
+  <si>
+    <t>Vend18</t>
+  </si>
+  <si>
+    <t>Elastic versus rigid image registration in {MRI-TRUS} fusion prostate biopsy: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>Venderink, Wulphert and de Rooij, Maarten and Sedelaar, Michiel J. and Huisman, Henkjan J. and Futterer, Jurgen J.</t>
+  </si>
+  <si>
+    <t>acaba0aa6a8a55104ae2cb09f093aa30621ffb47</t>
+  </si>
+  <si>
+    <t>['2a846d2cba5a8f0db089e7f2af275a535b15d82f', 'acaba0aa6a8a55104ae2cb09f093aa30621ffb47']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['2a846d2cba5a8f0db089e7f2af275a535b15d82f', 'acaba0aa6a8a55104ae2cb09f093aa30621ffb47']), took the first one with most citations</t>
+  </si>
+  <si>
+    <t>Xie20</t>
+  </si>
+  <si>
+    <t>Relational Modeling for Robust and Efficient Pulmonary Lobe Segmentation in {CT} Scans</t>
+  </si>
+  <si>
+    <t>Xie, Weiyi and Jacobs, Colin and Charbonnier, Jean-Paul and van Ginneken, Bram</t>
+  </si>
+  <si>
+    <t>32a8259a781ea7255621b0cbdeecfa8d03d7e0bd</t>
+  </si>
+  <si>
+    <t>['32a8259a781ea7255621b0cbdeecfa8d03d7e0bd', 'a114f0f6dbeb11d47d0736a1ece21cbf4be27fb5']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['32a8259a781ea7255621b0cbdeecfa8d03d7e0bd', 'a114f0f6dbeb11d47d0736a1ece21cbf4be27fb5']), took the first one with most citations</t>
+  </si>
+  <si>
+    <t>Anto22</t>
+  </si>
+  <si>
+    <t>The {Medical} {Segmentation} {Decathlon</t>
+  </si>
+  <si>
+    <t>Antonelli, Michela and Reinke, Annika and Bakas, Spyridon and Farahani, Keyvan and Kopp-Schneider, Annette and Landman, Bennett A. and Litjens, Geert and Menze, Bjoern and Ronneberger, Olaf and Summers, Ronald M. and van Ginneken, Bram and Bilello, Michel and Bilic, Patrick and Christ, Patrick F. and Do, Richard K. G. and Gollub, Marc J. and Heckers, Stephan H. and Huisman, Henkjan and Jarnagin, William R. and McHugo, Maureen K. and Napel, Sandy and Pernicka, Jennifer S. Golia and Rhode, Kawal and Tobon-Gomez, Catalina and Vorontsov, Eugene and Meakin, James A. and Ourselin, Sebastien and Wiesenfarth, Manuel and Arbelaez, Pablo and Bae, Byeonguk and Chen, Sihong and Daza, Laura and Feng, Jianjiang and He, Baochun and Isensee, Fabian and Ji, Yuanfeng and Jia, Fucang and Kim, Ildoo and Maier-Hein, Klaus and Merhof, Dorit and Pai, Akshay and Park, Beomhee and Perslev, Mathias and Rezaiifar, Ramin and Rippel, Oliver and Sarasua, Ignacio and Shen, Wei and Son, Jaemin and Wachinger, Christian and Wang, Liansheng and Wang, Yan and Xia, Yingda and Xu, Daguang and Xu, Zhanwei and Zheng, Yefeng and Simpson, Amber L. and Maier-Hein, Lena and Cardoso, M. Jorge</t>
+  </si>
+  <si>
+    <t>979a9f247700d00ff2c3f0612d5eb001379f93c8</t>
+  </si>
+  <si>
+    <t>['979a9f247700d00ff2c3f0612d5eb001379f93c8', 'c397c6f1480ac8e3ed875adad96e9b3e00c37f26']</t>
+  </si>
+  <si>
+    <t>multiple doi matches ['979a9f247700d00ff2c3f0612d5eb001379f93c8', 'c397c6f1480ac8e3ed875adad96e9b3e00c37f26'], took the first one with most citations</t>
+  </si>
+  <si>
+    <t>ss_ids: all have the same DOI</t>
+  </si>
+  <si>
+    <t>Bult20</t>
+  </si>
+  <si>
+    <t>Automated deep-learning system for Gleason grading of prostate cancer using biopsies: a diagnostic study</t>
+  </si>
+  <si>
+    <t>Bulten, Wouter and Pinckaers, Hans and van Boven, Hester and Vink, Robert and de Bel, Thomas and van Ginneken, Bram and van der Laak, Jeroen and Hulsbergen-van de Kaa, Christina and Litjens, Geert</t>
+  </si>
+  <si>
+    <t>39a52867ea3d60ec4f28182e0e618b762d3d7909</t>
+  </si>
+  <si>
+    <t>['39a52867ea3d60ec4f28182e0e618b762d3d7909', 'c310babca20446de2ee7d8857abe239e0fe261a0']</t>
+  </si>
+  <si>
+    <t>multiple doi matches ['39a52867ea3d60ec4f28182e0e618b762d3d7909', 'c310babca20446de2ee7d8857abe239e0fe261a0'], took the first one with most citations</t>
+  </si>
+  <si>
+    <t>Since they have the same doi I don't see how our current system can handle this in any way other than merging them as the same item</t>
+  </si>
+  <si>
+    <t>Wand17a</t>
+  </si>
+  <si>
+    <t>The effect of volumetric breast density on the risk of screen-detected and interval breast cancers: a cohort study</t>
+  </si>
+  <si>
+    <t>Wanders, Johanna O.P. and Holland, Katharina and Karssemeijer, Nico and Peeters, Petra H.M. and Veldhuis, Wouter B. and Mann, Ritse M. and {van Gils}, Carla H.</t>
+  </si>
+  <si>
+    <t>d677e08922a1c646ef739f06bae679cc795ba362</t>
+  </si>
+  <si>
+    <t>['10123038b80006871abc7396810bed15bfa29387', 'd677e08922a1c646ef739f06bae679cc795ba362']</t>
+  </si>
+  <si>
+    <t>multiple doi matches ['10123038b80006871abc7396810bed15bfa29387', 'd677e08922a1c646ef739f06bae679cc795ba362'], took the first one with most citations</t>
+  </si>
+  <si>
     <t>Amga20</t>
   </si>
   <si>
-    <t>article</t>
-  </si>
-  <si>
     <t>Report on computational assessment of Tumor Infiltrating Lymphocytes from the International Immuno-Oncology Biomarker Working Group</t>
   </si>
   <si>
@@ -79,54 +448,6 @@
     <t>title matching: single bibkey with multiple_ss_ids (['69999230b02054b82254684a73bb8a4c83878d28', 'b4c4c3dc91d42114023b0575c3e2273b87446ff7']), took the first one with most citations</t>
   </si>
   <si>
-    <t>ss_ids: all have the same DOI</t>
-  </si>
-  <si>
-    <t>['True_or_False', 'True_or_False']</t>
-  </si>
-  <si>
-    <t>Anto22</t>
-  </si>
-  <si>
-    <t>The {Medical} {Segmentation} {Decathlon</t>
-  </si>
-  <si>
-    <t>Antonelli, Michela and Reinke, Annika and Bakas, Spyridon and Farahani, Keyvan and Kopp-Schneider, Annette and Landman, Bennett A. and Litjens, Geert and Menze, Bjoern and Ronneberger, Olaf and Summers, Ronald M. and van Ginneken, Bram and Bilello, Michel and Bilic, Patrick and Christ, Patrick F. and Do, Richard K. G. and Gollub, Marc J. and Heckers, Stephan H. and Huisman, Henkjan and Jarnagin, William R. and McHugo, Maureen K. and Napel, Sandy and Pernicka, Jennifer S. Golia and Rhode, Kawal and Tobon-Gomez, Catalina and Vorontsov, Eugene and Meakin, James A. and Ourselin, Sebastien and Wiesenfarth, Manuel and Arbelaez, Pablo and Bae, Byeonguk and Chen, Sihong and Daza, Laura and Feng, Jianjiang and He, Baochun and Isensee, Fabian and Ji, Yuanfeng and Jia, Fucang and Kim, Ildoo and Maier-Hein, Klaus and Merhof, Dorit and Pai, Akshay and Park, Beomhee and Perslev, Mathias and Rezaiifar, Ramin and Rippel, Oliver and Sarasua, Ignacio and Shen, Wei and Son, Jaemin and Wachinger, Christian and Wang, Liansheng and Wang, Yan and Xia, Yingda and Xu, Daguang and Xu, Zhanwei and Zheng, Yefeng and Simpson, Amber L. and Maier-Hein, Lena and Cardoso, M. Jorge</t>
-  </si>
-  <si>
-    <t>979a9f247700d00ff2c3f0612d5eb001379f93c8</t>
-  </si>
-  <si>
-    <t>['979a9f247700d00ff2c3f0612d5eb001379f93c8', 'c397c6f1480ac8e3ed875adad96e9b3e00c37f26']</t>
-  </si>
-  <si>
-    <t>multiple doi matches ['979a9f247700d00ff2c3f0612d5eb001379f93c8', 'c397c6f1480ac8e3ed875adad96e9b3e00c37f26'], took the first one with most citations</t>
-  </si>
-  <si>
-    <t>['True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False']</t>
-  </si>
-  <si>
-    <t>Argu19</t>
-  </si>
-  <si>
-    <t>Function Follows Form: Regression from Complete Thoracic Computed Tomography Scans</t>
-  </si>
-  <si>
-    <t>Argus, Max and Schaefer-Prokop, Cornelia and Lynch, David A. and van Ginneken, Bram</t>
-  </si>
-  <si>
-    <t>6425e3f4c37f8deb9e8dc933e34d49aa843635b9</t>
-  </si>
-  <si>
-    <t>['6425e3f4c37f8deb9e8dc933e34d49aa843635b9', 'a9a9dfdccb4e656e7ff2b88fc88666415ab7e189']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['6425e3f4c37f8deb9e8dc933e34d49aa843635b9', 'a9a9dfdccb4e656e7ff2b88fc88666415ab7e189']), took the first one with most citations</t>
-  </si>
-  <si>
-    <t>[ss_ids: no DOIs at all!]</t>
-  </si>
-  <si>
     <t>Balk19</t>
   </si>
   <si>
@@ -163,43 +484,7 @@
     <t>title matching: single bibkey with multiple_ss_ids (['20fe29e553477d9bd330f052e4d01c0c1c616b22', 'f131ef217543d179269018950bf3b6ba2b30f3b1']), took the first one with most citations</t>
   </si>
   <si>
-    <t>[ss_ids: contain multiple DOIs!]</t>
-  </si>
-  <si>
-    <t>Band23</t>
-  </si>
-  <si>
-    <t>Continual learning strategies for cancer-independent detection of lymph node metastases</t>
-  </si>
-  <si>
-    <t>B\'{a}ndi, P. and Balkenhol, Maschenka and van Dijk, Marcory and Kok, Michel and van Ginneken, Bram and van der Laak, Jeroen and Litjens, Geert</t>
-  </si>
-  <si>
-    <t>4bcd672218ecec70473c84f6f1cc52c64031f3e5</t>
-  </si>
-  <si>
-    <t>['4bcd672218ecec70473c84f6f1cc52c64031f3e5', 'bc6b483f9b1fa630fa4b43158b13716f1ca7497b']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['4bcd672218ecec70473c84f6f1cc52c64031f3e5', 'bc6b483f9b1fa630fa4b43158b13716f1ca7497b']), took the first one with most citations</t>
-  </si>
-  <si>
-    <t>Bokh19b</t>
-  </si>
-  <si>
-    <t>Assessment of individual tumor buds using keratin immunohistochemistry: moderate interobserver agreement suggests a role for machine learning</t>
-  </si>
-  <si>
-    <t>Bokhorst, John-Melle and Blank, A. and Lugli, A. and Zlobec, I. and Dawson, H. and Vieth, M. and Rijstenberg, L. L. and Brockmoeller, S. and Urbanowicz, M. and Flejou, J. F. and Kirsch, R. and Ciompi, F. and van der Laak, J. A. W. M. and Nagtegaal, I. D.</t>
-  </si>
-  <si>
-    <t>c3e98e4b01c27affe1b6c161172c5e27e8141618</t>
-  </si>
-  <si>
-    <t>['aff9f3cd8024fb64c7ea36d396a36ebf33d01f5b', 'c3e98e4b01c27affe1b6c161172c5e27e8141618']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['aff9f3cd8024fb64c7ea36d396a36ebf33d01f5b', 'c3e98e4b01c27affe1b6c161172c5e27e8141618']), took the first one with most citations</t>
+    <t>The second one is a fully different publication.  It should not be blacklisted but left to be added to new publications.</t>
   </si>
   <si>
     <t>Bort21</t>
@@ -220,43 +505,10 @@
     <t>title matching: single bibkey with multiple_ss_ids (['0f779d6ca748e8a73a78f2e1dadaba3161e80950', '99965d464a74d2083ce198156e6b0ca4d043b128']), took the first one with most citations</t>
   </si>
   <si>
-    <t>[ss_ids: 1 no DOI, 1 have same DOI]</t>
-  </si>
-  <si>
-    <t>Bult20</t>
-  </si>
-  <si>
-    <t>Automated deep-learning system for Gleason grading of prostate cancer using biopsies: a diagnostic study</t>
-  </si>
-  <si>
-    <t>Bulten, Wouter and Pinckaers, Hans and van Boven, Hester and Vink, Robert and de Bel, Thomas and van Ginneken, Bram and van der Laak, Jeroen and Hulsbergen-van de Kaa, Christina and Litjens, Geert</t>
-  </si>
-  <si>
-    <t>39a52867ea3d60ec4f28182e0e618b762d3d7909</t>
-  </si>
-  <si>
-    <t>['39a52867ea3d60ec4f28182e0e618b762d3d7909', 'c310babca20446de2ee7d8857abe239e0fe261a0']</t>
-  </si>
-  <si>
-    <t>multiple doi matches ['39a52867ea3d60ec4f28182e0e618b762d3d7909', 'c310babca20446de2ee7d8857abe239e0fe261a0'], took the first one with most citations</t>
-  </si>
-  <si>
-    <t>Ciom17a</t>
-  </si>
-  <si>
-    <t>Towards automatic pulmonary nodule management in lung cancer screening with deep learning</t>
-  </si>
-  <si>
-    <t>F. Ciompi and K. Chung and S. J. van Riel and A. A. A. Setio and P. K. Gerke and C. Jacobs and E. Th. Scholten and C. M. Schaefer-Prokop and M. M. W. Wille and A. Marchiano and U. Pastorino and M. Prokop and B. van Ginneken</t>
-  </si>
-  <si>
-    <t>fd0901b1f2121506391a7859de8fb695d159a393</t>
-  </si>
-  <si>
-    <t>['86b9d39fb026746752f95f87f87fd26b8512c913', 'fd0901b1f2121506391a7859de8fb695d159a393']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['86b9d39fb026746752f95f87f87fd26b8512c913', 'fd0901b1f2121506391a7859de8fb695d159a393']), took the first one with most citations</t>
+    <t>['False', 'True']</t>
+  </si>
+  <si>
+    <t>The second one is a fully different publication. I do not think we can add it separately as it has no doi?! So I suggest to blacklist it.  (Investigation works out it is an arxiv paper, but for future how can we handle such things?)</t>
   </si>
   <si>
     <t>Emau15</t>
@@ -277,24 +529,6 @@
     <t>title matching: single bibkey with multiple_ss_ids (['fb1084b454e9b6f203c860e6f89ca4389cd1a8e9', 'fc7b70a4d154e3d2dfabe4393809dfb29cc36a7a']), took the first one with most citations</t>
   </si>
   <si>
-    <t>Gall17</t>
-  </si>
-  <si>
-    <t>Computed tomography quantification of tracheal abnormalities in {COPD} and their influence on airflow limitation</t>
-  </si>
-  <si>
-    <t>Gallardo Estrella, Leticia and Pompe, Esther and Kuhnigk, Jan-Martin and Lynch, David A and Bhatt, Surya P and van Ginneken, Bram and van Rikxoort, Eva Marjolein</t>
-  </si>
-  <si>
-    <t>e15e0cd21632aa9d6643b314a4d1d1a6580f2b39</t>
-  </si>
-  <si>
-    <t>['d1e0a041fc417d82c584191ecf5b3b536127d9e0', 'e15e0cd21632aa9d6643b314a4d1d1a6580f2b39']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['d1e0a041fc417d82c584191ecf5b3b536127d9e0', 'e15e0cd21632aa9d6643b314a4d1d1a6580f2b39']), took the first one with most citations</t>
-  </si>
-  <si>
     <t>Gees19</t>
   </si>
   <si>
@@ -349,6 +583,9 @@
     <t>title matching: single bibkey with multiple_ss_ids (['46479bbea7749cb2db35b139206039531327053c', 'b69fe5a837277ddbea5215d6bacd3a902e9d11ce']), took the first one with most citations</t>
   </si>
   <si>
+    <t>These are the same DOI except for the lowercase s. Please check again that doi matching is NOT case sensitive  10.1007/s12194-017-0394-5 and 10.1007/S12194-017-0394-5</t>
+  </si>
+  <si>
     <t>Habi20</t>
   </si>
   <si>
@@ -385,40 +622,22 @@
     <t>title matching: single bibkey with multiple_ss_ids (['3881ae992914cd50a14782104170cc5dd5d9ae7e', 'a4d4e42f1accfd77f378549c776b7c850afbcda5']), took the first one with most citations</t>
   </si>
   <si>
-    <t>Kooi17d</t>
-  </si>
-  <si>
-    <t>Classifying Symmetrical Differences and Temporal Change in Mammography Using Deep Neural Networks</t>
-  </si>
-  <si>
-    <t>Thijs Kooi and Nico Karssemeijer</t>
-  </si>
-  <si>
-    <t>a908e3775fd064b0d249728a7261cfb1efa13b87</t>
-  </si>
-  <si>
-    <t>['a908e3775fd064b0d249728a7261cfb1efa13b87', 'b8c484519a8970bf4cb07c3c609c41a05365f258']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['a908e3775fd064b0d249728a7261cfb1efa13b87', 'b8c484519a8970bf4cb07c3c609c41a05365f258']), took the first one with most citations</t>
-  </si>
-  <si>
-    <t>Kort15</t>
-  </si>
-  <si>
-    <t>4D}-{CTA} in Neurovascular Disease: A Review</t>
-  </si>
-  <si>
-    <t>Hans G. J. Kortman and Ewoud J. Smit and Marcel T. H. Oei and Rashindra Manniesing and Mathias Prokop and Frederick J. A. Meijer</t>
-  </si>
-  <si>
-    <t>88b86ad75e10c7dac7b70edbd05ed494d699ffb0</t>
-  </si>
-  <si>
-    <t>['7c83ece3400fa10da80bd363c15dd96eded51c9f', '88b86ad75e10c7dac7b70edbd05ed494d699ffb0']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['7c83ece3400fa10da80bd363c15dd96eded51c9f', '88b86ad75e10c7dac7b70edbd05ed494d699ffb0']), took the first one with most citations</t>
+    <t>Hude20</t>
+  </si>
+  <si>
+    <t>Application of a risk-management framework for integration of stromal tumor-infiltrating lymphocytes in clinical trials.</t>
+  </si>
+  <si>
+    <t>Hudeček, Jan and Voorwerk, Leonie and van Seijen, Maartje and Nederlof, Iris and de Maaker, Michiel and van den Berg, Jose and van de Vijver, Koen K. and Sikorska, Karolina and Adams, Sylvia and Demaria, Sandra and Viale, Giuseppe and Nielsen, Torsten O. and Badve, Sunil S. and Michiels, Stefan and Symmans, William Fraser and Sotiriou, Christos and Rimm, David L. and Hewitt, Stephen M. and Denkert, Carsten and Loibl, Sibylle and Loi, Sherene and Bartlett, John M. S. and Pruneri, Giancarlo and Dillon, Deborah A. and Cheang, Maggie C. U. and Tutt, Andrew and Hall, Jacqueline A. and Kos, Zuzana and Salgado, Roberto and Kok, Marleen and Horlings, Hugo M. and Group, International Immuno-Oncology Biomarker Working</t>
+  </si>
+  <si>
+    <t>c52daf1cb971120c4083116cfc213acbaac6faaf</t>
+  </si>
+  <si>
+    <t>['c52daf1cb971120c4083116cfc213acbaac6faaf', 'cde27a74addf80ca2b3385a32966d51d35e0b2ff']</t>
+  </si>
+  <si>
+    <t>title matching: single bibkey with multiple_ss_ids (['c52daf1cb971120c4083116cfc213acbaac6faaf', 'cde27a74addf80ca2b3385a32966d51d35e0b2ff']), took the first one with most citations</t>
   </si>
   <si>
     <t>Kos20</t>
@@ -439,42 +658,6 @@
     <t>title matching: single bibkey with multiple_ss_ids (['889cc0565d6e2e844f4db0132c71a612672d2497', 'a7f96553bc690f6f66697895a98e9377cc0f7562']), took the first one with most citations</t>
   </si>
   <si>
-    <t>Maie18a</t>
-  </si>
-  <si>
-    <t>Why rankings of biomedical image analysis competitions should be interpreted with care</t>
-  </si>
-  <si>
-    <t>Maier-Hein, Lena and Eisenmann, Matthias and Reinke, Annika and Onogur, Sinan and Stankovic, Marko and Scholz, Patrick and Arbel, Tal and Bogunovic, Hrvoje and Bradley, Andrew P and Carass, Aaron and Feldmann, Carolin and Frangi, Alejandro F and Full, Peter M and van Ginneken, Bram and Hanbury, Allan and Honauer, Katrin and Kozubek, Michal and Landman, Bennett A and Marz, Keno and Maier, Oskar and Maier-Hein, Klaus and Menze, Bjoern H and Muller, Henning and Neher, Peter F and Niessen, Wiro and Rajpoot, Nasir and Sharp, Gregory C and Sirinukunwattana, Korsuk and Speidel, Stefanie and Stock, Christian and Stoyanov, Danail and Taha, Abdel Aziz and van der Sommen, Fons and Wang, Ching-Wei and Weber, Marc-Andre and Zheng, Guoyan and Jannin, Pierre and Kopp-Schneider, Annette</t>
-  </si>
-  <si>
-    <t>91d23b702b9a59bf75c5162c3250017b526c0e69</t>
-  </si>
-  <si>
-    <t>['91d23b702b9a59bf75c5162c3250017b526c0e69', 'bed661aebb0ede3c407e044637ce60a6d7ccfe5f']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['91d23b702b9a59bf75c5162c3250017b526c0e69', 'bed661aebb0ede3c407e044637ce60a6d7ccfe5f']), took the first one with most citations</t>
-  </si>
-  <si>
-    <t>Mann17</t>
-  </si>
-  <si>
-    <t>White Matter and Gray Matter Segmentation in {4D} Computed Tomography</t>
-  </si>
-  <si>
-    <t>Rashindra Manniesing and Marcel T.H. Oei and Luuk J Oostveen and Jaime Melendez and Ewoud J. Smit and Bram Platel and Clara I S\'{a}nchez and Frederick J.A. Meijer and Mathias Prokop and Bram van Ginneken</t>
-  </si>
-  <si>
-    <t>86bab119f07a492350c6cc7bd06ed91c73ee807a</t>
-  </si>
-  <si>
-    <t>['682e8febc5d053766fefe1ee2de5ca2ff39762f2', '7f1eabb6591699816ccd89e7765a66dc54a7175c', '86bab119f07a492350c6cc7bd06ed91c73ee807a', 'e7f15929ff71a5a33af66ece92d707a7be7aebc8']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['682e8febc5d053766fefe1ee2de5ca2ff39762f2', '7f1eabb6591699816ccd89e7765a66dc54a7175c', '86bab119f07a492350c6cc7bd06ed91c73ee807a', 'e7f15929ff71a5a33af66ece92d707a7be7aebc8']), took the first one with most citations</t>
-  </si>
-  <si>
     <t>Meij17a</t>
   </si>
   <si>
@@ -493,27 +676,6 @@
     <t>title matching: single bibkey with multiple_ss_ids (['6119971f513cfa3a9dce2cff139f041f11bcb404', 'fb5c4bf41fd879c9c64028a817db7f7ab6aba429']), took the first one with most citations</t>
   </si>
   <si>
-    <t>Mori20</t>
-  </si>
-  <si>
-    <t>inproceedings</t>
-  </si>
-  <si>
-    <t>Kernel of CycleGAN as a principal homogeneous space</t>
-  </si>
-  <si>
-    <t>Moriakov, N. and Adler, J. and Teuwen, J.</t>
-  </si>
-  <si>
-    <t>6d37b7ceb99c6cc36be602ae9ab2a26232d11bb5</t>
-  </si>
-  <si>
-    <t>['6d37b7ceb99c6cc36be602ae9ab2a26232d11bb5', '8f938d6b54c38e469997969380383de635e654aa']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['6d37b7ceb99c6cc36be602ae9ab2a26232d11bb5', '8f938d6b54c38e469997969380383de635e654aa']), took the first one with most citations</t>
-  </si>
-  <si>
     <t>Mull19</t>
   </si>
   <si>
@@ -532,117 +694,6 @@
     <t>title matching: single bibkey with multiple_ss_ids (['18d0a58647fbdaaf7cd278cb66ae548a1e5289e5', '981fb8239e2e32cd742059aa270015871aa64b61']), took the first one with most citations</t>
   </si>
   <si>
-    <t>Ridg15</t>
-  </si>
-  <si>
-    <t>Differentiating between Subsolid and Solid Pulmonary Nodules at {CT}: Inter- and Intraobserver Agreement between Experienced Thoracic Radiologists</t>
-  </si>
-  <si>
-    <t>Ridge, Carole A. and Yildirim, Afra and Boiselle, Phillip M. and Franquet, Tomas and Schaefer-Prokop, Cornelia M. and Tack, Denis and Gevenois, Pierre Alain and Bankier, Alexander A.</t>
-  </si>
-  <si>
-    <t>fdf663cc9dda29d55f2e2f44f9876f3b08f854f8</t>
-  </si>
-  <si>
-    <t>['75bc9847c96d8f319f82d1b9ba01b5a396247152', 'a6a2fed1ee525c0d2a35ae6454660eca53ce03fc', 'fdf663cc9dda29d55f2e2f44f9876f3b08f854f8']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['75bc9847c96d8f319f82d1b9ba01b5a396247152', 'a6a2fed1ee525c0d2a35ae6454660eca53ce03fc', 'fdf663cc9dda29d55f2e2f44f9876f3b08f854f8']), took the first one with most citations</t>
-  </si>
-  <si>
-    <t>[ss_ids: 2 no DOI, 1 have same DOI]</t>
-  </si>
-  <si>
-    <t>Scho14c</t>
-  </si>
-  <si>
-    <t>Towards a close computed tomography monitoring approach for screen detected subsolid pulmonary nodules?</t>
-  </si>
-  <si>
-    <t>Scholten, Ernst T. and de Jong, Pim A. and de Hoop, Bartjan and van Klaveren, Rob and van Amelsvoort-van de Vorst, Saskia and Oudkerk, Matthijs and Vliegenthart, Rozemarijn and de Koning, Harry J. and van der Aalst, Carlijn M. and Vernhout, Ren\'{e} M. and Groen, Harry J M. and Lammers, Jan-Willem J. and van Ginneken, Bram and Jacobs, Colin and Mali, Willem P T M. and Horeweg, Nanda and Weenink, Carla and Thunnissen, Erik and Prokop, Mathias and Gietema, Hester A.</t>
-  </si>
-  <si>
-    <t>6ca452a24dbe147205850148d98163481aa22dc6</t>
-  </si>
-  <si>
-    <t>['2fa5f435f41242e8ef053e94ae7af400014ca7d3', '6ca452a24dbe147205850148d98163481aa22dc6']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['2fa5f435f41242e8ef053e94ae7af400014ca7d3', '6ca452a24dbe147205850148d98163481aa22dc6']), took the first one with most citations</t>
-  </si>
-  <si>
-    <t>Vend18</t>
-  </si>
-  <si>
-    <t>Elastic versus rigid image registration in {MRI-TRUS} fusion prostate biopsy: a systematic review and meta-analysis</t>
-  </si>
-  <si>
-    <t>Venderink, Wulphert and de Rooij, Maarten and Sedelaar, Michiel J. and Huisman, Henkjan J. and Futterer, Jurgen J.</t>
-  </si>
-  <si>
-    <t>acaba0aa6a8a55104ae2cb09f093aa30621ffb47</t>
-  </si>
-  <si>
-    <t>['2a846d2cba5a8f0db089e7f2af275a535b15d82f', 'acaba0aa6a8a55104ae2cb09f093aa30621ffb47']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['2a846d2cba5a8f0db089e7f2af275a535b15d82f', 'acaba0aa6a8a55104ae2cb09f093aa30621ffb47']), took the first one with most citations</t>
-  </si>
-  <si>
-    <t>Vent21</t>
-  </si>
-  <si>
-    <t>Automated COVID-19 Grading with Convolutional Neural Networks in Computed Tomography Scans: A Systematic Comparison</t>
-  </si>
-  <si>
-    <t>Coen de Vente and Luuk H. Boulogne and Kiran Vaidhya Venkadesh and Cheryl Sital and Nikolas Lessmann and Colin Jacobs and Clara I. S\'{a}nchez and Bram van Ginneken</t>
-  </si>
-  <si>
-    <t>441d6e8ba2cc2314d7d44425a158c25e27f9cb96</t>
-  </si>
-  <si>
-    <t>['41f386d38567e38132525cad9bdc7da1ad6e8f1c', '441d6e8ba2cc2314d7d44425a158c25e27f9cb96']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['41f386d38567e38132525cad9bdc7da1ad6e8f1c', '441d6e8ba2cc2314d7d44425a158c25e27f9cb96']), took the first one with most citations</t>
-  </si>
-  <si>
-    <t>Wand17a</t>
-  </si>
-  <si>
-    <t>The effect of volumetric breast density on the risk of screen-detected and interval breast cancers: a cohort study</t>
-  </si>
-  <si>
-    <t>Wanders, Johanna O.P. and Holland, Katharina and Karssemeijer, Nico and Peeters, Petra H.M. and Veldhuis, Wouter B. and Mann, Ritse M. and {van Gils}, Carla H.</t>
-  </si>
-  <si>
-    <t>d677e08922a1c646ef739f06bae679cc795ba362</t>
-  </si>
-  <si>
-    <t>['10123038b80006871abc7396810bed15bfa29387', 'd677e08922a1c646ef739f06bae679cc795ba362']</t>
-  </si>
-  <si>
-    <t>multiple doi matches ['10123038b80006871abc7396810bed15bfa29387', 'd677e08922a1c646ef739f06bae679cc795ba362'], took the first one with most citations</t>
-  </si>
-  <si>
-    <t>Xie20</t>
-  </si>
-  <si>
-    <t>Relational Modeling for Robust and Efficient Pulmonary Lobe Segmentation in {CT} Scans</t>
-  </si>
-  <si>
-    <t>Xie, Weiyi and Jacobs, Colin and Charbonnier, Jean-Paul and van Ginneken, Bram</t>
-  </si>
-  <si>
-    <t>32a8259a781ea7255621b0cbdeecfa8d03d7e0bd</t>
-  </si>
-  <si>
-    <t>['32a8259a781ea7255621b0cbdeecfa8d03d7e0bd', 'a114f0f6dbeb11d47d0736a1ece21cbf4be27fb5']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['32a8259a781ea7255621b0cbdeecfa8d03d7e0bd', 'a114f0f6dbeb11d47d0736a1ece21cbf4be27fb5']), took the first one with most citations</t>
-  </si>
-  <si>
     <t>Zaid18</t>
   </si>
   <si>
@@ -661,115 +712,396 @@
     <t>title matching: single bibkey with multiple_ss_ids (['ebb0d21c567909e31be5d43d72c8b3020f2708c9', 'fd2239f855b044b6ebe9fac5e0e01951bc9eddb4']), took the first one with most citations</t>
   </si>
   <si>
-    <t>Hude20</t>
-  </si>
-  <si>
-    <t>Application of a risk-management framework for integration of stromal tumor-infiltrating lymphocytes in clinical trials.</t>
-  </si>
-  <si>
-    <t>Hudeček, Jan and Voorwerk, Leonie and van Seijen, Maartje and Nederlof, Iris and de Maaker, Michiel and van den Berg, Jose and van de Vijver, Koen K. and Sikorska, Karolina and Adams, Sylvia and Demaria, Sandra and Viale, Giuseppe and Nielsen, Torsten O. and Badve, Sunil S. and Michiels, Stefan and Symmans, William Fraser and Sotiriou, Christos and Rimm, David L. and Hewitt, Stephen M. and Denkert, Carsten and Loibl, Sibylle and Loi, Sherene and Bartlett, John M. S. and Pruneri, Giancarlo and Dillon, Deborah A. and Cheang, Maggie C. U. and Tutt, Andrew and Hall, Jacqueline A. and Kos, Zuzana and Salgado, Roberto and Kok, Marleen and Horlings, Hugo M. and Group, International Immuno-Oncology Biomarker Working</t>
-  </si>
-  <si>
-    <t>c52daf1cb971120c4083116cfc213acbaac6faaf</t>
-  </si>
-  <si>
-    <t>['c52daf1cb971120c4083116cfc213acbaac6faaf', 'cde27a74addf80ca2b3385a32966d51d35e0b2ff']</t>
-  </si>
-  <si>
-    <t>title matching: single bibkey with multiple_ss_ids (['c52daf1cb971120c4083116cfc213acbaac6faaf', 'cde27a74addf80ca2b3385a32966d51d35e0b2ff']), took the first one with most citations</t>
-  </si>
-  <si>
-    <t>['True', 'True']</t>
-  </si>
-  <si>
-    <t>['False', 'False']</t>
-  </si>
-  <si>
-    <t>['True', 'False']</t>
-  </si>
-  <si>
-    <t>['False', 'True']</t>
-  </si>
-  <si>
-    <t>['True', 'True', 'True']</t>
-  </si>
-  <si>
-    <t>['False', 'False', 'False']</t>
-  </si>
-  <si>
-    <t>['True', 'True', 'True', 'True']</t>
-  </si>
-  <si>
-    <t>['False', 'False', 'False', 'False']</t>
-  </si>
-  <si>
-    <t>The second one is a fully different publication.  It should not be blacklisted but left to be added to new publications.</t>
-  </si>
-  <si>
-    <t>The second one is a fully different publication. I do not think we can add it separately as it has no doi?! So I suggest to blacklist it.  (Investigation works out it is an arxiv paper, but for future how can we handle such things?)</t>
-  </si>
-  <si>
-    <t>BOLD means not checked yet! (same doi…. Do I need to?)</t>
-  </si>
-  <si>
-    <t>These are the same DOI except for the lowercase s. Please check again that doi matching is NOT case sensitive  10.1007/s12194-017-0394-5 and 10.1007/S12194-017-0394-5</t>
-  </si>
-  <si>
-    <t>The titles are a bit different, but same author list and same topic, one on arxiv, one published.  I believe they are essentially the same and I do not see how we can (easily) add the arxiv one as a separate paper so I propose that we merge them as a single item.</t>
-  </si>
-  <si>
-    <t>The second one is a different publication (arxiv, has its own arxiv based doi), I don't add it to this bibkey or to the blacklist so it should end up in our "new publications to be added" list in the end</t>
-  </si>
-  <si>
-    <t>Since they have the same doi I don't see how our current system can handle this in any way other than merging them as the same item</t>
-  </si>
-  <si>
-    <t>The first one is SPIE, the second one is arxiv (but with no doi).  They are not actually the same, but without a doi I am not sure how the arxiv one can ever be added via our system.  Maybe we have to add the arxiv one manually to the bib file?</t>
+    <t>BOLD means not checked yet! (same doi…. Do I need to?) --&gt; JOEY: I made them all True for adding, and all false for blacklist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -792,32 +1124,318 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1102,1255 +1720,1258 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="94.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="13.8571428571429" customWidth="1"/>
     <col min="9" max="10" width="33" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="33.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="16.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="4">
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1">
         <v>2017</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1">
         <v>2023</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1">
         <v>2022</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>2017</v>
       </c>
       <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="J5" t="s">
-        <v>225</v>
-      </c>
-      <c r="K5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>170</v>
-      </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="H6">
         <v>2016</v>
       </c>
       <c r="I6" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H7">
         <v>2019</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H8">
         <v>2019</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
       </c>
       <c r="H9">
         <v>2017</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H10">
         <v>2017</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="H11">
         <v>2015</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="H12">
         <v>2018</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="H13">
         <v>2020</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="H14">
         <v>2015</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="H15">
         <v>2018</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="H16">
         <v>2020</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="H17">
         <v>2022</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="1">
         <v>2020</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="H19" s="2">
         <v>2017</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="H20" s="2">
         <v>2020</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="H21" s="2">
         <v>2019</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="H22">
         <v>2019</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="H23">
         <v>2021</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="H24">
         <v>2015</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="K24" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="H25" s="2">
         <v>2019</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="H26" s="2">
         <v>2017</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="H27">
         <v>2017</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="J27" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>220</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:11">
       <c r="A28" s="2" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="H28" s="2">
         <v>2020</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="H29" s="2">
         <v>2021</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:11">
       <c r="A30" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H30" s="2">
         <v>2020</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="H31" s="2">
         <v>2020</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:11">
       <c r="A32" s="2" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="H32" s="2">
         <v>2017</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:11">
       <c r="A33" s="2" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="H33" s="2">
         <v>2019</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:11">
       <c r="A34" s="2" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="H34" s="2">
         <v>2018</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9">
       <c r="I36" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I37" s="5"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L34">
+  <sortState ref="A2:L34">
     <sortCondition ref="J2:J34"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/scripts/script_data/complete_MANUAL_LOOKUP_matches_single_bibkey_with_many_ss_ids_KM.xlsx
+++ b/scripts/script_data/complete_MANUAL_LOOKUP_matches_single_bibkey_with_many_ss_ids_KM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="232">
   <si>
     <t>bibkey</t>
   </si>
@@ -710,9 +710,6 @@
   </si>
   <si>
     <t>title matching: single bibkey with multiple_ss_ids (['ebb0d21c567909e31be5d43d72c8b3020f2708c9', 'fd2239f855b044b6ebe9fac5e0e01951bc9eddb4']), took the first one with most citations</t>
-  </si>
-  <si>
-    <t>BOLD means not checked yet! (same doi…. Do I need to?) --&gt; JOEY: I made them all True for adding, and all false for blacklist</t>
   </si>
 </sst>
 </file>
@@ -725,7 +722,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,13 +748,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1225,148 +1215,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1733,7 +1723,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2960,9 +2950,7 @@
       </c>
     </row>
     <row r="36" spans="9:9">
-      <c r="I36" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="9:9">
       <c r="I37" s="6"/>
